--- a/excel_data/산이름_JoinDT_김수하.xlsx
+++ b/excel_data/산이름_JoinDT_김수하.xlsx
@@ -16,7 +16,7 @@
     <x:sheet name="국립공원" sheetId="1" r:id="rId1"/>
     <x:sheet name="탐방코스" sheetId="2" r:id="rId2"/>
     <x:sheet name="결과샘플" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Result" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Result55" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>

--- a/excel_data/산이름_JoinDT_김수하.xlsx
+++ b/excel_data/산이름_JoinDT_김수하.xlsx
@@ -16,7 +16,7 @@
     <x:sheet name="국립공원" sheetId="1" r:id="rId1"/>
     <x:sheet name="탐방코스" sheetId="2" r:id="rId2"/>
     <x:sheet name="결과샘플" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Result55" sheetId="7" r:id="rId7"/>
+    <x:sheet name="Result_복습_인수" sheetId="7" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="191029"/>
